--- a/month_data.xlsx
+++ b/month_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2644,72 +2644,72 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="C36" t="n">
-        <v>20065277.01333334</v>
+        <v>60195831.03999999</v>
       </c>
       <c r="D36" t="n">
-        <v>6038074.576666664</v>
+        <v>18114223.73</v>
       </c>
       <c r="E36" t="n">
-        <v>14027202.43666667</v>
+        <v>42081607.31</v>
       </c>
       <c r="F36" t="n">
-        <v>11635740.60666666</v>
+        <v>34907221.82</v>
       </c>
       <c r="G36" t="n">
-        <v>1866662.766666667</v>
+        <v>5599988.3</v>
       </c>
       <c r="H36" t="n">
-        <v>524799.0633333335</v>
+        <v>1574397.19</v>
       </c>
       <c r="I36" t="n">
-        <v>5195890.923333332</v>
+        <v>15587672.77</v>
       </c>
       <c r="J36" t="n">
-        <v>451140.3266666667</v>
+        <v>1353420.98</v>
       </c>
       <c r="K36" t="n">
-        <v>7240141.833333336</v>
+        <v>21720425.5</v>
       </c>
       <c r="L36" t="n">
-        <v>2995601.863333333</v>
+        <v>8986805.59</v>
       </c>
       <c r="M36" t="n">
-        <v>4244539.966666667</v>
+        <v>12733619.9</v>
       </c>
       <c r="N36" t="n">
-        <v>3602919.986666666</v>
+        <v>10808759.96</v>
       </c>
       <c r="O36" t="n">
-        <v>533467.6099999999</v>
+        <v>1600402.83</v>
       </c>
       <c r="P36" t="n">
-        <v>108152.37</v>
+        <v>324457.11</v>
       </c>
       <c r="Q36" t="n">
-        <v>2379058.63</v>
+        <v>7137175.890000001</v>
       </c>
       <c r="R36" t="n">
-        <v>1158524.516666681</v>
+        <v>3475573.550000012</v>
       </c>
       <c r="S36" t="n">
-        <v>19125643.05333328</v>
+        <v>57376929.15999997</v>
       </c>
       <c r="T36" t="n">
-        <v>21517928.25666666</v>
+        <v>64553784.76999998</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="C37" t="n">
         <v>40055628.45</v>
@@ -2768,10 +2768,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="C38" t="n">
         <v>15200537.93000001</v>
@@ -2830,10 +2830,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="C39" t="n">
         <v>14132581.09999999</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="C40" t="n">
         <v>13673239.87</v>
@@ -2954,10 +2954,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="C41" t="n">
         <v>16743691.45999998</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="C42" t="n">
         <v>14283219.27000001</v>
@@ -3078,10 +3078,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="C43" t="n">
         <v>13427686.19</v>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="C44" t="n">
         <v>17230416.3</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="C45" t="n">
         <v>14043033.84</v>
@@ -3264,10 +3264,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="C46" t="n">
         <v>13615891.98999999</v>
@@ -3326,10 +3326,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="C47" t="n">
         <v>19575232.87</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="C48" t="n">
         <v>16748731.23</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="C49" t="n">
         <v>33673843.77</v>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="C50" t="n">
         <v>13358559.53</v>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="C51" t="n">
         <v>12547565.86999997</v>
@@ -3636,10 +3636,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="C52" t="n">
         <v>11990154.52000001</v>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="C53" t="n">
         <v>14899115.35000001</v>
@@ -3760,10 +3760,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="C54" t="n">
         <v>12331631.67999999</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="C55" t="n">
         <v>11971349.19</v>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="C56" t="n">
         <v>17685149.43000001</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="C57" t="n">
         <v>12771479.69</v>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="C58" t="n">
         <v>13161470.91</v>
@@ -4070,10 +4070,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="C59" t="n">
         <v>17564661.79</v>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="C60" t="n">
         <v>13822570.31</v>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="C61" t="n">
         <v>20118666.96</v>
@@ -4244,10 +4244,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="C62" t="n">
         <v>12433874.22</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="C63" t="n">
         <v>11302562.68000001</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="C64" t="n">
         <v>10382851.67</v>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="C65" t="n">
         <v>13487622.78999999</v>
@@ -4476,10 +4476,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="C66" t="n">
         <v>11406633.87</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="C67" t="n">
         <v>10541112.55</v>
@@ -4592,10 +4592,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="C68" t="n">
         <v>14541650.44</v>
@@ -4650,10 +4650,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="C69" t="n">
         <v>11562306.46000001</v>
@@ -4708,10 +4708,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="C70" t="n">
         <v>10872542.62</v>
@@ -4766,10 +4766,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="C71" t="n">
         <v>29430517.1</v>
@@ -4824,10 +4824,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="C72" t="n">
         <v>-122090674</v>
@@ -4882,10 +4882,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="C73" t="n">
         <v>18917623.69</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="C74" t="n">
         <v>10816461.36</v>
@@ -4998,10 +4998,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="C75" t="n">
         <v>10338883.11</v>
@@ -5056,10 +5056,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="C76" t="n">
         <v>9697102.670000002</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="C77" t="n">
         <v>11835256.03999999</v>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="C78" t="n">
         <v>10152993.31</v>
@@ -5230,10 +5230,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="C79" t="n">
         <v>9985763.090000004</v>
@@ -5288,68 +5288,68 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="C80" t="n">
-        <v>11464824.20333333</v>
+        <v>34394472.61</v>
       </c>
       <c r="D80" t="n">
-        <v>4088750.973333333</v>
+        <v>12266252.92</v>
       </c>
       <c r="E80" t="n">
-        <v>7376073.226666667</v>
+        <v>22128219.68</v>
       </c>
       <c r="F80" t="n">
-        <v>6475342.566666663</v>
+        <v>19426027.7</v>
       </c>
       <c r="G80" t="n">
-        <v>603396.5466666664</v>
+        <v>1810189.64</v>
       </c>
       <c r="H80" t="n">
-        <v>297334.1133333333</v>
+        <v>892002.34</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>3261875.99</v>
+        <v>9785627.970000001</v>
       </c>
       <c r="L80" t="n">
-        <v>1691422.043333333</v>
+        <v>5074266.129999999</v>
       </c>
       <c r="M80" t="n">
-        <v>1570453.943333333</v>
+        <v>4711361.83</v>
       </c>
       <c r="N80" t="n">
-        <v>1107641.38</v>
+        <v>3322924.14</v>
       </c>
       <c r="O80" t="n">
-        <v>401152.5</v>
+        <v>1203457.5</v>
       </c>
       <c r="P80" t="n">
-        <v>61660.06</v>
+        <v>184980.18</v>
       </c>
       <c r="Q80" t="n">
-        <v>1455579.423333334</v>
+        <v>4366738.27</v>
       </c>
       <c r="R80" t="n">
-        <v>4668447.976666659</v>
+        <v>14005343.93000001</v>
       </c>
       <c r="S80" t="n">
-        <v>1644410.583333313</v>
+        <v>4933231.75</v>
       </c>
       <c r="T80" t="n">
-        <v>11352698.4666667</v>
+        <v>34058095.39999998</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="C81" t="n">
         <v>15344748.24</v>
@@ -5404,10 +5404,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="C82" t="n">
         <v>13657971.44</v>
@@ -5462,10 +5462,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="C83" t="n">
         <v>17168860.35</v>
@@ -5520,10 +5520,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="C84" t="n">
         <v>10876184.49000001</v>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="C85" t="n">
         <v>10572695.02</v>
@@ -5636,10 +5636,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="C86" t="n">
         <v>10587866</v>
@@ -5694,10 +5694,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="C87" t="n">
         <v>12251642.46000001</v>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="C88" t="n">
         <v>10600274.37</v>
@@ -5810,10 +5810,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="C89" t="n">
         <v>10405511.64999999</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="C90" t="n">
         <v>12614928.56</v>
@@ -5926,10 +5926,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="C91" t="n">
         <v>10819045</v>
@@ -5984,10 +5984,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="C92" t="n">
         <v>11137943</v>
@@ -6042,10 +6042,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="C93" t="n">
         <v>15533039</v>
@@ -6100,10 +6100,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="C94" t="n">
         <v>13450798</v>
@@ -6158,10 +6158,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="C95" t="n">
         <v>16429787</v>
@@ -6216,10 +6216,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="C96" t="n">
         <v>9205420</v>
@@ -6274,10 +6274,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="C97" t="n">
         <v>8558176.870000005</v>
@@ -6332,10 +6332,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="C98" t="n">
         <v>7806390.36999999</v>
@@ -6390,10 +6390,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="C99" t="n">
         <v>9856495.120000005</v>
@@ -6448,10 +6448,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="C100" t="n">
         <v>8082727.070000008</v>
@@ -6506,10 +6506,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="C101" t="n">
         <v>8002691.029999994</v>
@@ -6564,10 +6564,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="C102" t="n">
         <v>10356174.67</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="C103" t="n">
         <v>8100320.57</v>
@@ -6680,10 +6680,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="C104" t="n">
         <v>8637567.709999997</v>
@@ -6738,10 +6738,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="C106" t="n">
         <v>21290612.36</v>
@@ -6854,10 +6854,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="C107" t="n">
         <v>11476413.23</v>
@@ -6910,246 +6910,6 @@
         <v>338154395.46</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>43040</v>
-      </c>
-      <c r="C108" t="n">
-        <v>11464824.20333333</v>
-      </c>
-      <c r="D108" t="n">
-        <v>4088750.973333333</v>
-      </c>
-      <c r="E108" t="n">
-        <v>7376073.226666667</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6475342.566666663</v>
-      </c>
-      <c r="G108" t="n">
-        <v>603396.5466666666</v>
-      </c>
-      <c r="H108" t="n">
-        <v>297334.1133333334</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>3261875.99</v>
-      </c>
-      <c r="L108" t="n">
-        <v>1691422.043333333</v>
-      </c>
-      <c r="M108" t="n">
-        <v>1570453.943333333</v>
-      </c>
-      <c r="N108" t="n">
-        <v>1107641.38</v>
-      </c>
-      <c r="O108" t="n">
-        <v>401152.5000000001</v>
-      </c>
-      <c r="P108" t="n">
-        <v>61660.06</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>1455579.423333333</v>
-      </c>
-      <c r="R108" t="n">
-        <v>4668447.976666659</v>
-      </c>
-      <c r="S108" t="n">
-        <v>1644410.583333313</v>
-      </c>
-      <c r="T108" t="n">
-        <v>11352698.4666667</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>43070</v>
-      </c>
-      <c r="C109" t="n">
-        <v>11464824.20333333</v>
-      </c>
-      <c r="D109" t="n">
-        <v>4088750.973333335</v>
-      </c>
-      <c r="E109" t="n">
-        <v>7376073.226666667</v>
-      </c>
-      <c r="F109" t="n">
-        <v>6475342.56666667</v>
-      </c>
-      <c r="G109" t="n">
-        <v>603396.5466666669</v>
-      </c>
-      <c r="H109" t="n">
-        <v>297334.1133333333</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>3261875.99</v>
-      </c>
-      <c r="L109" t="n">
-        <v>1691422.043333333</v>
-      </c>
-      <c r="M109" t="n">
-        <v>1570453.943333333</v>
-      </c>
-      <c r="N109" t="n">
-        <v>1107641.38</v>
-      </c>
-      <c r="O109" t="n">
-        <v>401152.5</v>
-      </c>
-      <c r="P109" t="n">
-        <v>61660.06000000003</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>1455579.423333333</v>
-      </c>
-      <c r="R109" t="n">
-        <v>4668447.976666689</v>
-      </c>
-      <c r="S109" t="n">
-        <v>1644410.583333373</v>
-      </c>
-      <c r="T109" t="n">
-        <v>11352698.46666658</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="C110" t="n">
-        <v>20065277.01333334</v>
-      </c>
-      <c r="D110" t="n">
-        <v>6038074.576666668</v>
-      </c>
-      <c r="E110" t="n">
-        <v>14027202.43666667</v>
-      </c>
-      <c r="F110" t="n">
-        <v>11635740.60666667</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1866662.766666667</v>
-      </c>
-      <c r="H110" t="n">
-        <v>524799.0633333334</v>
-      </c>
-      <c r="I110" t="n">
-        <v>5195890.923333332</v>
-      </c>
-      <c r="J110" t="n">
-        <v>451140.3266666667</v>
-      </c>
-      <c r="K110" t="n">
-        <v>7240141.833333333</v>
-      </c>
-      <c r="L110" t="n">
-        <v>2995601.863333333</v>
-      </c>
-      <c r="M110" t="n">
-        <v>4244539.966666665</v>
-      </c>
-      <c r="N110" t="n">
-        <v>3602919.986666666</v>
-      </c>
-      <c r="O110" t="n">
-        <v>533467.61</v>
-      </c>
-      <c r="P110" t="n">
-        <v>108152.37</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>2379058.630000001</v>
-      </c>
-      <c r="R110" t="n">
-        <v>1158524.516666681</v>
-      </c>
-      <c r="S110" t="n">
-        <v>19125643.05333328</v>
-      </c>
-      <c r="T110" t="n">
-        <v>21517928.25666666</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>43132</v>
-      </c>
-      <c r="C111" t="n">
-        <v>20065277.01333332</v>
-      </c>
-      <c r="D111" t="n">
-        <v>6038074.576666668</v>
-      </c>
-      <c r="E111" t="n">
-        <v>14027202.43666667</v>
-      </c>
-      <c r="F111" t="n">
-        <v>11635740.60666667</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1866662.766666667</v>
-      </c>
-      <c r="H111" t="n">
-        <v>524799.0633333332</v>
-      </c>
-      <c r="I111" t="n">
-        <v>5195890.923333336</v>
-      </c>
-      <c r="J111" t="n">
-        <v>451140.3266666667</v>
-      </c>
-      <c r="K111" t="n">
-        <v>7240141.833333332</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2995601.863333334</v>
-      </c>
-      <c r="M111" t="n">
-        <v>4244539.966666667</v>
-      </c>
-      <c r="N111" t="n">
-        <v>3602919.986666668</v>
-      </c>
-      <c r="O111" t="n">
-        <v>533467.6100000001</v>
-      </c>
-      <c r="P111" t="n">
-        <v>108152.37</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>2379058.63</v>
-      </c>
-      <c r="R111" t="n">
-        <v>1158524.516666651</v>
-      </c>
-      <c r="S111" t="n">
-        <v>19125643.0533334</v>
-      </c>
-      <c r="T111" t="n">
-        <v>21517928.25666666</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
